--- a/documentation/coordCubeInSimulator.xlsx
+++ b/documentation/coordCubeInSimulator.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\TB\docperso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\TB\Extrusion---web-interface\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B839E0DD-C924-40A1-A7DF-8DA81ED457F7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660FD601-1325-46CF-997B-D80F09B2086A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE34C5C4-A83F-4935-8DAD-91AAFD804279}"/>
+    <workbookView xWindow="36480" yWindow="1065" windowWidth="17280" windowHeight="8970" xr2:uid="{BE34C5C4-A83F-4935-8DAD-91AAFD804279}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -48,15 +48,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -360,18 +366,94 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -400,6 +482,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2584,6 +2674,356 @@
           <a:r>
             <a:rPr lang="fr-CH" sz="2000"/>
             <a:t>24</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>82252</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>65330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>7619</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="ZoneTexte 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCFF2F56-71E0-4905-B5CB-327FDB8DBE26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4911987" y="6250977"/>
+          <a:ext cx="1262454" cy="345701"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-CH" sz="2000"/>
+            <a:t>Cheminée</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>360493</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>311859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>179295</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>257959</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="ZoneTexte 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2546B97D-3547-4E1B-BE88-BE07F6FCD66C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610699" y="1297977"/>
+          <a:ext cx="625625" cy="349511"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-CH" sz="2000"/>
+            <a:t>Ciel</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>375509</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>339985</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="ZoneTexte 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C87DBBD8-AA80-42E8-9C53-E3ECF57D871A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7625715" y="5378823"/>
+          <a:ext cx="612290" cy="339986"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-CH" sz="2000"/>
+            <a:t>Sol</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>106568</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>358587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>315446</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>295162</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="ZoneTexte 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62C88604-7702-4F06-95C7-E9FF04369F8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3726068" y="1344705"/>
+          <a:ext cx="612290" cy="339986"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-CH" sz="2000"/>
+            <a:t>Ciel</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>328781</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>134247</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>351191</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="ZoneTexte 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63B44ECC-26B4-4270-A6E6-659D4B308D14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3948281" y="5390029"/>
+          <a:ext cx="612290" cy="339986"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-CH" sz="2000"/>
+            <a:t>Sol</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2892,8 +3332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E53AD3-ED6E-4D42-BDC1-A3E381D0632A}">
   <dimension ref="B2:Y18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2903,288 +3343,302 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="7"/>
+      <c r="C2" s="6"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="28">
+      <c r="E2" s="27">
         <v>1</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="27">
         <v>3</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="27">
         <v>5</v>
       </c>
-      <c r="H2" s="28">
+      <c r="H2" s="27">
         <v>7</v>
       </c>
-      <c r="I2" s="28">
+      <c r="I2" s="27">
         <v>9</v>
       </c>
-      <c r="J2" s="28">
+      <c r="J2" s="27">
         <v>11</v>
       </c>
-      <c r="K2" s="28">
+      <c r="K2" s="27">
         <v>13</v>
       </c>
-      <c r="L2" s="28">
+      <c r="L2" s="27">
         <v>15</v>
       </c>
-      <c r="M2" s="28">
+      <c r="M2" s="27">
         <v>17</v>
       </c>
-      <c r="N2" s="28">
+      <c r="N2" s="27">
         <v>19</v>
       </c>
-      <c r="O2" s="28">
+      <c r="O2" s="27">
         <v>21</v>
       </c>
-      <c r="P2" s="28">
+      <c r="P2" s="27">
         <v>23</v>
       </c>
-      <c r="Q2" s="28">
+      <c r="Q2" s="27">
         <v>25</v>
       </c>
-      <c r="R2" s="28">
+      <c r="R2" s="27">
         <v>27</v>
       </c>
-      <c r="S2" s="28">
+      <c r="S2" s="27">
         <v>29</v>
       </c>
-      <c r="T2" s="28">
+      <c r="T2" s="27">
         <v>31</v>
       </c>
-      <c r="U2" s="28">
+      <c r="U2" s="27">
         <v>33</v>
       </c>
       <c r="V2" s="2"/>
     </row>
     <row r="3" spans="2:25" ht="31.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="7"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="1"/>
-      <c r="G3" s="27"/>
+      <c r="G3" s="26"/>
       <c r="H3" s="2"/>
+      <c r="M3" s="29"/>
       <c r="Q3" s="2"/>
     </row>
     <row r="4" spans="2:25" ht="31.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="26">
+      <c r="C4" s="25">
         <v>1</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="8"/>
+      <c r="H4" s="7"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="30"/>
       <c r="P4" s="3"/>
-      <c r="Q4" s="8"/>
+      <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="2:25" ht="31.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="26">
+      <c r="C5" s="25">
         <v>3</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="9"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="8"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="33"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="10"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="9"/>
     </row>
     <row r="6" spans="2:25" ht="31.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="26">
+      <c r="C6" s="25">
         <v>5</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="9"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="8"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="33"/>
       <c r="N6" s="3"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="10"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="9"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
-      <c r="Y6" s="27"/>
+      <c r="Y6" s="26"/>
     </row>
     <row r="7" spans="2:25" ht="31.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="26">
+      <c r="C7" s="25">
         <v>7</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="11"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="10"/>
     </row>
     <row r="8" spans="2:25" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="26">
+      <c r="C8" s="25">
         <v>9</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="11"/>
     </row>
     <row r="9" spans="2:25" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="26">
+      <c r="C9" s="25">
         <v>11</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="11"/>
     </row>
     <row r="10" spans="2:25" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="7"/>
-      <c r="C10" s="26">
+      <c r="B10" s="6"/>
+      <c r="C10" s="25">
         <v>13</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="11"/>
     </row>
     <row r="11" spans="2:25" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="7"/>
-      <c r="C11" s="26">
+      <c r="B11" s="6"/>
+      <c r="C11" s="25">
         <v>15</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="11"/>
     </row>
     <row r="12" spans="2:25" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="7"/>
-      <c r="C12" s="26">
+      <c r="B12" s="6"/>
+      <c r="C12" s="25">
         <v>17</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
       <c r="U12" s="3"/>
     </row>
     <row r="13" spans="2:25" ht="31.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="7"/>
-      <c r="C13" s="26">
+      <c r="B13" s="6"/>
+      <c r="C13" s="25">
         <v>19</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="22"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="21"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="33"/>
       <c r="N13" s="5"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="9"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="8"/>
     </row>
     <row r="14" spans="2:25" ht="28.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="7"/>
-      <c r="C14" s="26">
+      <c r="B14" s="6"/>
+      <c r="C14" s="25">
         <v>21</v>
       </c>
       <c r="F14" s="5"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="22"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="33"/>
       <c r="O14" s="5"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="22"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="21"/>
     </row>
     <row r="15" spans="2:25" ht="31.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="7"/>
-      <c r="C15" s="26">
+      <c r="B15" s="6"/>
+      <c r="C15" s="25">
         <v>23</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="4"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="33"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="4"/>
     </row>
     <row r="16" spans="2:25" ht="31.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="35"/>
     </row>
     <row r="17" spans="2:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" spans="2:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
